--- a/backup/jupyter-notebook/photos.xlsx
+++ b/backup/jupyter-notebook/photos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -31,452 +31,444 @@
     <t>url</t>
   </si>
   <si>
+    <t>아쿠아리움</t>
+  </si>
+  <si>
+    <t>01.jpg</t>
+  </si>
+  <si>
+    <t>{"커플":4, "아쿠아리움":5, "가족":3, "아이":5, "놀이공원":3}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EC%97%B4%EB%8C%80%EC%96%B4-%EC%95%84%EC%BF%A0%EC%95%84%EB%A6%AC%EC%9B%80-%EB%AC%BC%EA%B3%A0%EA%B8%B0-2395616/</t>
+  </si>
+  <si>
+    <t>아이 가족</t>
+  </si>
+  <si>
+    <t>02.jpg</t>
+  </si>
+  <si>
+    <t>{"가족":5, "휴식":4, "힐링":4,"활동":3, "풍경":4}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EA%B0%80%EC%A1%B1-%EB%B9%84%EC%B9%98-%EC%96%B4%EB%A6%B0%EC%9D%B4-%EC%9C%A0%EC%95%84-1111818/</t>
+  </si>
+  <si>
+    <t>친구 놀이공원 엔터 재미</t>
+  </si>
+  <si>
+    <t>03.jpg</t>
+  </si>
+  <si>
+    <t>{"놀이공원":5, "엔터테인먼트":4, "재미":4, "가족":3, "커플":4 }</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EA%B8%B0%EA%B3%84-%EC%97%94%ED%84%B0%ED%85%8C%EC%9D%B8%EB%A8%BC%ED%8A%B8-%EC%83%89%EC%83%81-%ED%9A%8C%EC%A0%84-4961909/</t>
+  </si>
+  <si>
+    <t>친구 여유</t>
+  </si>
+  <si>
+    <t>04.jpg</t>
+  </si>
+  <si>
+    <t>{"힐링":5, "여유":5, "친구":4, "나들이":3, "커플":4 }</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EB%82%A8%EC%9E%90-%EC%97%AC%EC%9E%90-%EC%9D%98%EB%A5%98-%EC%BB%A4%ED%94%8C-2425121/</t>
+  </si>
+  <si>
+    <t>책</t>
+  </si>
+  <si>
+    <t>05.jpg</t>
+  </si>
+  <si>
+    <t>{"힐링":5, "유익하다":5, "전시관":3, "휴식":3, "예술":3 }</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/photos/books-bookshelf-library-education-2463779/</t>
+  </si>
+  <si>
+    <t>전시장</t>
+  </si>
+  <si>
+    <t>06.jpg</t>
+  </si>
+  <si>
+    <t>{"전시관" : 2 , "미술관" : 4, "역사" : 2, "미술": 4, "예술" : 5}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EC%95%84%ED%8A%B8-%EA%B7%B8%EB%A6%BC-%EA%BD%83-%EC%86%8C%EB%85%80-%EC%82%AC%EB%9E%8C%EB%93%A4-2571027/</t>
+  </si>
+  <si>
+    <t>유적지</t>
+  </si>
+  <si>
+    <t>07.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"관광지": 4, "유적지" : 5, "풍경" : 3, "음식, 식사" : 4,"가족" : 2,}  </t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EC%8A%A4%ED%86%A4%ED%97%A8%EC%A7%80-%EB%8F%8C-%EB%B0%94%EC%9C%84-%ED%9A%8D%EA%B8%B0%EC%A0%81%EC%9D%B8-101801/</t>
+  </si>
+  <si>
+    <t>korea palace</t>
+  </si>
+  <si>
+    <t>08.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"관광지": 4, "유적지" : 5, "풍경" : 3, "자연" : 4, "친구" : 2}  </t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/sunset-nightview-3664096/</t>
+  </si>
+  <si>
+    <t>백화점</t>
+  </si>
+  <si>
+    <t>09.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"돈": 5, "음식, 식사" : 4, "활동" : 2, "여유" : 2, "체험" : 1}  </t>
+  </si>
+  <si>
+    <t>https://pixabay.com/images/id-498560/</t>
+  </si>
+  <si>
+    <t>술음식</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"먹다": 5, "음식, 식사" : 5, "아이" : 1, "콘서트" : 2, "가격" : 3}  </t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EC%82%BC%EA%B2%B9%EC%82%B4-%EA%B3%A0%EA%B8%B0-%EA%B5%AC%EC%9D%B4-%EB%8F%BC%EC%A7%80%EA%B3%A0%EA%B8%B0-5731404/</t>
+  </si>
+  <si>
+    <t>박물관</t>
+  </si>
+  <si>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"역사": 4, "박물관" : 5, "유익하다" : 3, "강좌" : 4, "가족" : 2}  </t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EB%A3%A8%EB%B8%8C%EB%A5%B4-%EB%B0%95%EB%AC%BC%EA%B4%80-%EB%B0%95%EB%AC%BC%EA%B4%80-%ED%8C%8C%EB%A6%AC-1210004/</t>
+  </si>
+  <si>
+    <t>관광지</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"역사": 4, "힐링" : 3, "풍경" : 4, "관광지" : 5, "가족" : 2}  </t>
+  </si>
+  <si>
+    <t>https://pixabay.com/images/id-1095361/</t>
+  </si>
+  <si>
+    <t>테마파크</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"놀이공원": 5, "엔터테인먼트" : 5, "친구" : 1, "공연" : 2, "가격" : 3}  </t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Lotte_World_by_Mins.jpg</t>
+  </si>
+  <si>
     <t>공원</t>
   </si>
   <si>
-    <t>1.jpg</t>
-  </si>
-  <si>
-    <t>{"힐링":3, "나들이":4, "자연":5, "산책":4, "커플":4 }</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%EA%BD%83-%EC%95%84%EC%B9%98-%ED%86%B5%EB%A1%9C-%EA%B3%B5%EC%9B%90-%EA%B0%B1-3112055/</t>
-  </si>
-  <si>
-    <t>아쿠아리움</t>
-  </si>
-  <si>
-    <t>2.jpg</t>
-  </si>
-  <si>
-    <t>{"커플":4, "아쿠아리움":5, "가족":3, "아이":5, "놀이공원":3}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%EC%97%B4%EB%8C%80%EC%96%B4-%EC%95%84%EC%BF%A0%EC%95%84%EB%A6%AC%EC%9B%80-%EB%AC%BC%EA%B3%A0%EA%B8%B0-2395616/</t>
-  </si>
-  <si>
-    <t>아이 가족</t>
-  </si>
-  <si>
-    <t>3.jpg</t>
-  </si>
-  <si>
-    <t>{"가족":5, "휴식":4, "힐링":4,"활동":3, "풍경":4}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%EA%B0%80%EC%A1%B1-%EB%B9%84%EC%B9%98-%EC%96%B4%EB%A6%B0%EC%9D%B4-%EC%9C%A0%EC%95%84-1111818/</t>
-  </si>
-  <si>
-    <t>공연 엔터 재미</t>
-  </si>
-  <si>
-    <t>4.jpg</t>
-  </si>
-  <si>
-    <t>{"돈":3, "콘서트":5, "친구":4, "재미":4, "공연":5 }</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%EC%9D%8C%EC%95%85%ED%9A%8C-%EA%B5%B0%EC%A4%91-%EB%8C%80%EC%83%81-%EA%B7%B8%EB%A3%B9-768722/</t>
-  </si>
-  <si>
-    <t>친구 놀이공원 엔터 재미</t>
-  </si>
-  <si>
-    <t>5.jpg</t>
-  </si>
-  <si>
-    <t>{"놀이공원":5, "엔터테인먼트":4, "재미":4, "가족":3, "커플":4 }</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%EA%B8%B0%EA%B3%84-%EC%97%94%ED%84%B0%ED%85%8C%EC%9D%B8%EB%A8%BC%ED%8A%B8-%EC%83%89%EC%83%81-%ED%9A%8C%EC%A0%84-4961909/</t>
-  </si>
-  <si>
-    <t>친구 여유</t>
-  </si>
-  <si>
-    <t>6.jpg</t>
-  </si>
-  <si>
-    <t>{"힐링":5, "여유":5, "친구":4, "나들이":3, "커플":4 }</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%EB%82%A8%EC%9E%90-%EC%97%AC%EC%9E%90-%EC%9D%98%EB%A5%98-%EC%BB%A4%ED%94%8C-2425121/</t>
-  </si>
-  <si>
-    <t>책</t>
-  </si>
-  <si>
-    <t>7.jpg</t>
-  </si>
-  <si>
-    <t>{"힐링":5, "유익하다":5, "전시관":3, "휴식":3, "예술":3 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://pixabay.com/photos/books-bookshelf-library-education-2463779/</t>
-  </si>
-  <si>
-    <t>전시장</t>
-  </si>
-  <si>
-    <t>8.jpg</t>
-  </si>
-  <si>
-    <t>{"전시관" : 2 , "미술관" : 4, "역사" : 2, "미술": 4, "예술" : 5}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%EC%95%84%ED%8A%B8-%EA%B7%B8%EB%A6%BC-%EA%BD%83-%EC%86%8C%EB%85%80-%EC%82%AC%EB%9E%8C%EB%93%A4-2571027/</t>
-  </si>
-  <si>
-    <t>유적지</t>
-  </si>
-  <si>
-    <t>9.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"관광지": 4, "유적지" : 5, "풍경" : 3, "음식, 식사" : 4,"가족" : 2,}  </t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%EC%8A%A4%ED%86%A4%ED%97%A8%EC%A7%80-%EB%8F%8C-%EB%B0%94%EC%9C%84-%ED%9A%8D%EA%B8%B0%EC%A0%81%EC%9D%B8-101801/</t>
-  </si>
-  <si>
-    <t>korea palace</t>
-  </si>
-  <si>
-    <t>11.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"관광지": 4, "유적지" : 5, "풍경" : 3, "자연" : 4, "친구" : 2}  </t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/sunset-nightview-3664096/</t>
-  </si>
-  <si>
-    <t>백화점</t>
-  </si>
-  <si>
-    <t>12.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"돈": 5, "음식, 식사" : 4, "활동" : 2, "여유" : 2, "체험" : 1}  </t>
-  </si>
-  <si>
-    <t>https://pixabay.com/images/id-498560/</t>
-  </si>
-  <si>
-    <t>술음식</t>
-  </si>
-  <si>
-    <t>13.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"먹다": 5, "음식, 식사" : 5, "아이" : 1, "콘서트" : 2, "가격" : 3}  </t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%EB%8F%BC%EC%A7%80%EA%B3%A0%EA%B8%B0-%EA%B5%AC%EC%9D%B4-%EC%9D%8C%EC%8B%9D-%EC%82%BC%EA%B2%B9%EC%82%B4-2527487/</t>
-  </si>
-  <si>
-    <t>박물관</t>
-  </si>
-  <si>
     <t>14.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">{"역사": 4, "박물관" : 5, "유익하다" : 3, "강좌" : 4, "가족" : 2}  </t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%EB%A3%A8%EB%B8%8C%EB%A5%B4-%EB%B0%95%EB%AC%BC%EA%B4%80-%EB%B0%95%EB%AC%BC%EA%B4%80-%ED%8C%8C%EB%A6%AC-1210004/</t>
-  </si>
-  <si>
-    <t>관광지</t>
+    <t xml:space="preserve">{"산책": 4, "나들이" : 3, "분수" : 1, "관광지" : 2, "공원" : 5}  </t>
+  </si>
+  <si>
+    <t>https://pixabay.com/images/id-3241181/</t>
+  </si>
+  <si>
+    <t>별마당도서관</t>
   </si>
   <si>
     <t>15.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">{"역사": 4, "힐링" : 3, "풍경" : 4, "관광지" : 5, "가족" : 2}  </t>
-  </si>
-  <si>
-    <t>https://pixabay.com/images/id-1095361/</t>
-  </si>
-  <si>
-    <t>테마파크</t>
+    <t xml:space="preserve">{"힐링": 4, "여유" : 2, "문화" : 3, "상품" : 1, "미술" : 2}  </t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/jpeTs-VfP68</t>
+  </si>
+  <si>
+    <t>야경</t>
   </si>
   <si>
     <t>16.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">{"놀이공원": 5, "엔터테인먼트" : 5, "친구" : 1, "공연" : 2, "가격" : 3}  </t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:Lotte_World_by_Mins.jpg</t>
+    <t xml:space="preserve">{"전망대": 5, "풍경" : 3, "문화" : 2, "호텔" : 4, "이벤트" : 1}  </t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EC%95%BC%EA%B2%BD-%EC%84%9C%EC%9A%B8-korea-%ED%95%9C%EA%B0%95-3538984/</t>
+  </si>
+  <si>
+    <t>공연콘서트</t>
   </si>
   <si>
     <t>17.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">{"산책": 4, "나들이" : 3, "분수" : 1, "관광지" : 2, "공원" : 5}  </t>
-  </si>
-  <si>
-    <t>https://pixabay.com/images/id-3241181/</t>
-  </si>
-  <si>
-    <t>별마당도서관</t>
+    <t xml:space="preserve">{"콘서트": 5, "공연" : 5, "문화" : 2, "친구" : 2, "구매" : 4}  </t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/GhGMPQqAypQ</t>
+  </si>
+  <si>
+    <t>예술</t>
   </si>
   <si>
     <t>18.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">{"힐링": 4, "여유" : 2, "문화" : 3, "상품" : 1, "미술" : 2}  </t>
-  </si>
-  <si>
-    <t>https://unsplash.com/photos/jpeTs-VfP68</t>
-  </si>
-  <si>
-    <t>야경</t>
+    <t>{"전시관":5, "유익하다":4, "커플":3, "문화":5, "미술관":4 }</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EC%95%84%ED%8A%B8-%EA%B0%A4%EB%9F%AC%EB%A6%AC-%EC%A0%84%EC%8B%9C%ED%9A%8C-%EB%B2%BD-%EA%B3%B5%EA%B0%84-4674319/</t>
+  </si>
+  <si>
+    <t>푸드양조장</t>
   </si>
   <si>
     <t>19.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">{"전망대": 5, "풍경" : 3, "문화" : 2, "호텔" : 4, "이벤트" : 1}  </t>
-  </si>
-  <si>
-    <t>https://unsplash.com/photos/GVQWTHpT1KE</t>
-  </si>
-  <si>
-    <t>공연콘서트</t>
+    <t>{"돈":5, "음식, 식사":4, "비싸다":5, "커플":4, "쇼핑":3 }</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/images/id-853109/</t>
+  </si>
+  <si>
+    <t>나들이</t>
   </si>
   <si>
     <t>20.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">{"콘서트": 5, "공연" : 5, "문화" : 2, "친구" : 2, "구매" : 4}  </t>
-  </si>
-  <si>
-    <t>https://unsplash.com/photos/GhGMPQqAypQ</t>
-  </si>
-  <si>
-    <t>예술</t>
+    <t>{힐링":4, "공원":5, "커플":4, "자연":4, "가족":3 }</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/photos/picnic-man-basket-meal-food-918754/</t>
+  </si>
+  <si>
+    <t>산책</t>
   </si>
   <si>
     <t>21.jpg</t>
   </si>
   <si>
-    <t>{"전시관":5, "유익하다":4, "커플":3, "문화":5, "미술관":4 }</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%EC%95%84%ED%8A%B8-%EA%B0%A4%EB%9F%AC%EB%A6%AC-%EC%A0%84%EC%8B%9C%ED%9A%8C-%EB%B2%BD-%EA%B3%B5%EA%B0%84-4674319/</t>
-  </si>
-  <si>
-    <t>푸드양조장</t>
+    <t>{“산책” : 5, “여유” : 4, “가족” : 3, “친구” : 3, “힐링” : 4}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/photos/man-woman-couple-walking-two-3687274/</t>
+  </si>
+  <si>
+    <t>여유</t>
   </si>
   <si>
     <t>22.jpg</t>
   </si>
   <si>
-    <t>{"돈":5, "음식, 식사":4, "비싸다":5, "커플":4, "쇼핑":3 }</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/images/id-853109/</t>
-  </si>
-  <si>
-    <t>나들이</t>
+    <t>{“여유” : 5, “힐링” : 4, “나들이” : 4, “가족”: 3, “친구” : 2}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/photos/relaxation-yoga-meditation-nature-1967892/</t>
+  </si>
+  <si>
+    <t>공연</t>
   </si>
   <si>
     <t>23.jpg</t>
   </si>
   <si>
-    <t>{힐링":4, "공원":5, "커플":4, "자연":4, "가족":3 }</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/photos/picnic-man-basket-meal-food-918754/</t>
-  </si>
-  <si>
-    <t>산책</t>
+    <t>{“공연” : 5, ”콘서트” : 4, “문화” : 3, “커플” : 2, “돈” : 1}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/photos/live-music-rock-show-concert-live-2219036/</t>
+  </si>
+  <si>
+    <t>영화</t>
   </si>
   <si>
     <t>24.jpg</t>
   </si>
   <si>
-    <t>{“산책” : 5, “여유” : 4, “가족” : 3, “친구” : 3, “힐링” : 4}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/photos/man-woman-couple-walking-two-3687274/</t>
-  </si>
-  <si>
-    <t>자연</t>
+    <t>{“영화” : 5, “이벤트” : 4, “엔터테인먼트” : 2, “재미” : 2, “문화” : 1}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%ED%8C%9D%EC%BD%98-%EC%9D%8C%EC%8B%9D-%ED%8C%90%EC%A7%80-%EC%BB%A8%ED%85%8C%EC%9D%B4%EB%84%88-1085072/</t>
+  </si>
+  <si>
+    <t>이벤트</t>
   </si>
   <si>
     <t>25.jpg</t>
   </si>
   <si>
-    <t>{“자연” : 5, “풍경” : 4, “공원” : 4, “여유” : 4, “휴식” : 3}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/photos/the-road-beams-path-forest-nature-815297/</t>
-  </si>
-  <si>
-    <t>여유</t>
+    <t>{“공연” : 5, “이벤트” : 5, “커플” : 3, “친구” : 3, “돈” : 1}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/photos/concert-confetti-party-event-club-2527495/</t>
+  </si>
+  <si>
+    <t>체험</t>
   </si>
   <si>
     <t>26.jpg</t>
   </si>
   <si>
-    <t>{“여유” : 5, “힐링” : 4, “나들이” : 4, “가족”: 3, “친구” : 2}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/photos/relaxation-yoga-meditation-nature-1967892/</t>
-  </si>
-  <si>
-    <t>분수</t>
+    <t>{“체험” : 5, ”아이” : 2, “구매” : 1, “커플” : 3, “돈” : 1}</t>
+  </si>
+  <si>
+    <t>https://www.kogl.or.kr/recommend/recommendDivView.do?atcUrl=keyword&amp;recommendIdx=2548</t>
+  </si>
+  <si>
+    <t>강좌</t>
   </si>
   <si>
     <t>27.jpg</t>
   </si>
   <si>
-    <t>{“공원” : 5, “여유” : 4, “휴식” : 4, “놀이공원” : 3, “힐링” : 4}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/photos/fountain-pond-park-garden-style-2955681/</t>
-  </si>
-  <si>
-    <t>공연</t>
+    <t>{“강좌” : 5, “체험” : 4, “유익하다” : 2, “문화” : 2, “요리” : 3}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/photos/school-draw-drawing-education-1974369/</t>
+  </si>
+  <si>
+    <t>요리</t>
   </si>
   <si>
     <t>28.jpg</t>
   </si>
   <si>
-    <t>{“공연” : 5, ”콘서트” : 4, “문화” : 3, “커플” : 2, “돈” : 1}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/photos/live-music-rock-show-concert-live-2219036/</t>
-  </si>
-  <si>
-    <t>영화</t>
+    <t>{“요리” : 5, “강좌” : 4, “음식” : 2, “재미” : 2, “체험” : 3}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/photos/cooking-ingredients-flat-lay-bake-5880136/</t>
+  </si>
+  <si>
+    <t>공예</t>
   </si>
   <si>
     <t>29.jpg</t>
   </si>
   <si>
-    <t>{“영화” : 5, “이벤트” : 4, “엔터테인먼트” : 2, “재미” : 2, “문화” : 1}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/ko/photos/%ED%8C%9D%EC%BD%98-%EC%9D%8C%EC%8B%9D-%ED%8C%90%EC%A7%80-%EC%BB%A8%ED%85%8C%EC%9D%B4%EB%84%88-1085072/</t>
-  </si>
-  <si>
-    <t>이벤트</t>
+    <t>{“공예” : 5, “체험” : 4, “문화” : 2, “재미” : 2, “이벤트” : 1}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/photos/goldsmith-workshop-do-it-yourself-5909681/</t>
+  </si>
+  <si>
+    <t>경기장</t>
   </si>
   <si>
     <t>30.jpg</t>
   </si>
   <si>
-    <t>{“공연” : 5, “이벤트” : 5, “커플” : 3, “친구” : 3, “돈” : 1}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/photos/concert-confetti-party-event-club-2527495/</t>
-  </si>
-  <si>
-    <t>체험</t>
+    <t>{“경기” : 5, “재미” : 3, “활동” : 3, “이벤트” : 3, “체험” : 3}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EB%8C%80%EC%83%81-%EA%B7%B8%EB%A3%B9-%EA%B4%80%EB%9E%8C%EC%84%9D-%EA%B5%B0%EC%A4%91-%EA%B2%8C%EC%9E%84-1866738/</t>
+  </si>
+  <si>
+    <t>보드게임</t>
   </si>
   <si>
     <t>31.jpg</t>
   </si>
   <si>
-    <t>{“체험” : 5, ”아이” : 2, “구매” : 1, “커플” : 3, “돈” : 1}</t>
-  </si>
-  <si>
-    <t>https://www.kogl.or.kr/recommend/recommendDivView.do?atcUrl=keyword&amp;recommendIdx=2548</t>
-  </si>
-  <si>
-    <t>강좌</t>
+    <t>{“게임” : 5, “재미” : 3, “친구” : 3, “힐링” : 3, “휴식” : 3}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/game-%EA%B2%8C%EC%9E%84-%EB%B3%B4%EB%93%9C%EA%B2%8C%EC%9E%84-%EB%86%80%EC%9D%B4-4710444/</t>
+  </si>
+  <si>
+    <t>도자기</t>
   </si>
   <si>
     <t>32.jpg</t>
   </si>
   <si>
-    <t>{“강좌” : 5, “체험” : 4, “유익하다” : 2, “문화” : 2, “요리” : 3}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/photos/school-draw-drawing-education-1974369/</t>
-  </si>
-  <si>
-    <t>요리</t>
+    <t>{“공예” : 5, “체험” : 5, “커플” : 3, “미술” : 3, “강좌” : 4}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EB%8F%84%EA%B3%B5-%EB%8F%84%EC%9E%90%EA%B8%B0-%EA%BD%83%EB%B3%91-%EB%83%84%EB%B9%84-4682257/</t>
+  </si>
+  <si>
+    <t>리조트</t>
   </si>
   <si>
     <t>33.jpg</t>
   </si>
   <si>
-    <t>{“요리” : 5, “강좌” : 4, “음식” : 2, “재미” : 2, “체험” : 3}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/photos/cooking-ingredients-flat-lay-bake-5880136/</t>
-  </si>
-  <si>
-    <t>공예</t>
+    <t>{“비싸다” : 5, “호텔” : 5, “커플” : 3, “힐링” : 3, “여유” : 3}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%ED%92%80-%EC%95%BC%EC%9E%90%EC%88%98-%ED%98%B8%ED%85%94-%ED%85%8C%EC%9D%B4%EB%B8%94-2128578/</t>
+  </si>
+  <si>
+    <t>호텔</t>
   </si>
   <si>
     <t>34.jpg</t>
   </si>
   <si>
-    <t>{“공예” : 5, “체험” : 4, “문화” : 2, “재미” : 2, “이벤트” : 1}</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/photos/goldsmith-workshop-do-it-yourself-5909681/</t>
+    <t>{“가격” : 5, “호텔” : 5, “커플” : 3, “가족” : 3, “돈” : 5}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%ED%98%B8%ED%85%94-%EB%A3%B8-%EC%B9%A8%EB%8C%80-%EB%B2%A0%EA%B0%9C-%EB%A3%B8-1447201/</t>
+  </si>
+  <si>
+    <t>영화관</t>
+  </si>
+  <si>
+    <t>35.jpg</t>
+  </si>
+  <si>
+    <t>{“영화” : 5, “커플” : 3, “공연” : 5, “재미” : 2, “힐링” : 2}</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/ko/photos/%EC%8B%9C%EB%84%A4%EB%A7%88-%ED%99%80-%EC%98%81%ED%99%94-%EC%98%81%ED%99%94-%EC%97%B0%EC%9D%B8-2502213/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
     <font>
       <u/>
-      <sz val="11.0"/>
-      <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -493,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -501,30 +493,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -742,27 +712,26 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.43"/>
-    <col customWidth="1" min="2" max="2" width="10.86"/>
-    <col customWidth="1" min="3" max="3" width="14.57"/>
-    <col customWidth="1" min="4" max="4" width="10.14"/>
+    <col customWidth="1" min="3" max="3" width="12.14"/>
+    <col customWidth="1" min="4" max="4" width="11.86"/>
     <col customWidth="1" min="5" max="5" width="56.86"/>
-    <col customWidth="1" min="6" max="6" width="58.86"/>
+    <col customWidth="1" min="6" max="6" width="70.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -773,19 +742,19 @@
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -793,19 +762,19 @@
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -813,19 +782,19 @@
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -833,19 +802,19 @@
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -853,19 +822,19 @@
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -873,19 +842,19 @@
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -893,19 +862,19 @@
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -913,19 +882,19 @@
       <c r="A9" s="1">
         <v>8.0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -933,19 +902,19 @@
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -953,19 +922,19 @@
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -973,19 +942,19 @@
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -993,19 +962,19 @@
       <c r="A13" s="1">
         <v>12.0</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1013,19 +982,19 @@
       <c r="A14" s="1">
         <v>13.0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1033,19 +1002,19 @@
       <c r="A15" s="1">
         <v>14.0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1053,19 +1022,19 @@
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1073,360 +1042,400 @@
       <c r="A17" s="1">
         <v>16.0</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>18.0</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="D19" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>19.0</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="D20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>20.0</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="D21" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>22.0</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="7">
+      <c r="C23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1">
         <v>4.0</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>23.0</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="C24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="D24" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>96</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
         <v>24.0</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="C25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="D25" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="C26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="D26" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
         <v>26.0</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="C27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="D27" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>27.0</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="C28" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="D28" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>112</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
         <v>28.0</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="E29" s="11" t="s">
+      <c r="C29" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="D29" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>116</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
         <v>29.0</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="7">
+      <c r="C30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="1">
         <v>5.0</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>136</v>
+      <c r="E36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1450,28 +1459,28 @@
     <hyperlink r:id="rId17" ref="F18"/>
     <hyperlink r:id="rId18" ref="F19"/>
     <hyperlink r:id="rId19" ref="F20"/>
-    <hyperlink r:id="rId20" ref="F21"/>
-    <hyperlink r:id="rId21" ref="F22"/>
-    <hyperlink r:id="rId22" ref="B23"/>
-    <hyperlink r:id="rId23" ref="F23"/>
-    <hyperlink r:id="rId24" ref="B24"/>
-    <hyperlink r:id="rId25" ref="F24"/>
-    <hyperlink r:id="rId26" ref="B25"/>
-    <hyperlink r:id="rId27" ref="F25"/>
-    <hyperlink r:id="rId28" ref="B26"/>
-    <hyperlink r:id="rId29" ref="F26"/>
-    <hyperlink r:id="rId30" ref="B27"/>
-    <hyperlink r:id="rId31" ref="F27"/>
-    <hyperlink r:id="rId32" ref="B28"/>
+    <hyperlink r:id="rId20" ref="B21"/>
+    <hyperlink r:id="rId21" ref="F21"/>
+    <hyperlink r:id="rId22" ref="B22"/>
+    <hyperlink r:id="rId23" ref="F22"/>
+    <hyperlink r:id="rId24" ref="B23"/>
+    <hyperlink r:id="rId25" ref="F23"/>
+    <hyperlink r:id="rId26" ref="B24"/>
+    <hyperlink r:id="rId27" ref="F24"/>
+    <hyperlink r:id="rId28" ref="B25"/>
+    <hyperlink r:id="rId29" ref="F25"/>
+    <hyperlink r:id="rId30" ref="B26"/>
+    <hyperlink r:id="rId31" ref="F26"/>
+    <hyperlink r:id="rId32" ref="F27"/>
     <hyperlink r:id="rId33" ref="F28"/>
-    <hyperlink r:id="rId34" ref="B29"/>
-    <hyperlink r:id="rId35" ref="F29"/>
-    <hyperlink r:id="rId36" ref="B30"/>
-    <hyperlink r:id="rId37" ref="F30"/>
-    <hyperlink r:id="rId38" ref="F31"/>
-    <hyperlink r:id="rId39" ref="F32"/>
-    <hyperlink r:id="rId40" ref="F33"/>
-    <hyperlink r:id="rId41" ref="F34"/>
+    <hyperlink r:id="rId34" ref="F29"/>
+    <hyperlink r:id="rId35" ref="F30"/>
+    <hyperlink r:id="rId36" ref="F31"/>
+    <hyperlink r:id="rId37" ref="F32"/>
+    <hyperlink r:id="rId38" ref="F33"/>
+    <hyperlink r:id="rId39" ref="F34"/>
+    <hyperlink r:id="rId40" ref="F35"/>
+    <hyperlink r:id="rId41" ref="F36"/>
   </hyperlinks>
   <drawing r:id="rId42"/>
 </worksheet>

--- a/backup/jupyter-notebook/photos.xlsx
+++ b/backup/jupyter-notebook/photos.xlsx
@@ -97,7 +97,7 @@
     <t>06.jpg</t>
   </si>
   <si>
-    <t>{"전시관" : 2 , "미술관" : 4, "역사" : 2, "미술": 4, "예술" : 5}</t>
+    <t>{"전시관" : 2, "미술관" : 4, "역사" : 2, "미술": 4, "예술" : 5}</t>
   </si>
   <si>
     <t>https://pixabay.com/ko/photos/%EC%95%84%ED%8A%B8-%EA%B7%B8%EB%A6%BC-%EA%BD%83-%EC%86%8C%EB%85%80-%EC%82%AC%EB%9E%8C%EB%93%A4-2571027/</t>
@@ -109,7 +109,7 @@
     <t>07.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">{"관광지": 4, "유적지" : 5, "풍경" : 3, "음식, 식사" : 4,"가족" : 2,}  </t>
+    <t xml:space="preserve">{"관광지": 4, "유적지" : 5, "풍경" : 3, "음식, 식사" : 4,"가족" : 2}  </t>
   </si>
   <si>
     <t>https://pixabay.com/ko/photos/%EC%8A%A4%ED%86%A4%ED%97%A8%EC%A7%80-%EB%8F%8C-%EB%B0%94%EC%9C%84-%ED%9A%8D%EA%B8%B0%EC%A0%81%EC%9D%B8-101801/</t>
@@ -265,7 +265,7 @@
     <t>20.jpg</t>
   </si>
   <si>
-    <t>{힐링":4, "공원":5, "커플":4, "자연":4, "가족":3 }</t>
+    <t>{"힐링":4, "공원":5, "커플":4, "자연":4, "가족":3 }</t>
   </si>
   <si>
     <t>https://pixabay.com/photos/picnic-man-basket-meal-food-918754/</t>
@@ -277,7 +277,7 @@
     <t>21.jpg</t>
   </si>
   <si>
-    <t>{“산책” : 5, “여유” : 4, “가족” : 3, “친구” : 3, “힐링” : 4}</t>
+    <t>{"산책" : 5, "여유" : 4, "가족" : 3, "친구" : 3, "힐링" : 4}</t>
   </si>
   <si>
     <t>https://pixabay.com/photos/man-woman-couple-walking-two-3687274/</t>
@@ -289,7 +289,7 @@
     <t>22.jpg</t>
   </si>
   <si>
-    <t>{“여유” : 5, “힐링” : 4, “나들이” : 4, “가족”: 3, “친구” : 2}</t>
+    <t>{"여유" : 5, "힐링" : 4, "나들이" : 4, "가족": 3, "친구" : 2}</t>
   </si>
   <si>
     <t>https://pixabay.com/photos/relaxation-yoga-meditation-nature-1967892/</t>
@@ -301,7 +301,7 @@
     <t>23.jpg</t>
   </si>
   <si>
-    <t>{“공연” : 5, ”콘서트” : 4, “문화” : 3, “커플” : 2, “돈” : 1}</t>
+    <t>{"공연" : 5, "콘서트" : 4, "문화" : 3, "커플" : 2, "돈" : 1}</t>
   </si>
   <si>
     <t>https://pixabay.com/photos/live-music-rock-show-concert-live-2219036/</t>
@@ -313,7 +313,7 @@
     <t>24.jpg</t>
   </si>
   <si>
-    <t>{“영화” : 5, “이벤트” : 4, “엔터테인먼트” : 2, “재미” : 2, “문화” : 1}</t>
+    <t>{"영화" : 5, "이벤트" : 4, "엔터테인먼트" : 2, "재미" : 2, "문화" : 1}</t>
   </si>
   <si>
     <t>https://pixabay.com/ko/photos/%ED%8C%9D%EC%BD%98-%EC%9D%8C%EC%8B%9D-%ED%8C%90%EC%A7%80-%EC%BB%A8%ED%85%8C%EC%9D%B4%EB%84%88-1085072/</t>
@@ -325,7 +325,7 @@
     <t>25.jpg</t>
   </si>
   <si>
-    <t>{“공연” : 5, “이벤트” : 5, “커플” : 3, “친구” : 3, “돈” : 1}</t>
+    <t>{"공연" : 5, "이벤트" : 5, "커플" : 3, "친구" : 3, "돈" : 1}</t>
   </si>
   <si>
     <t>https://pixabay.com/photos/concert-confetti-party-event-club-2527495/</t>
@@ -337,7 +337,7 @@
     <t>26.jpg</t>
   </si>
   <si>
-    <t>{“체험” : 5, ”아이” : 2, “구매” : 1, “커플” : 3, “돈” : 1}</t>
+    <t>{"체험" : 5, "아이" : 2, "구매" : 1, "커플" : 3, "돈" : 1}</t>
   </si>
   <si>
     <t>https://www.kogl.or.kr/recommend/recommendDivView.do?atcUrl=keyword&amp;recommendIdx=2548</t>
@@ -349,7 +349,7 @@
     <t>27.jpg</t>
   </si>
   <si>
-    <t>{“강좌” : 5, “체험” : 4, “유익하다” : 2, “문화” : 2, “요리” : 3}</t>
+    <t>{"강좌" : 5, "체험" : 4, "유익하다" : 2, "문화" : 2, "요리" : 3}</t>
   </si>
   <si>
     <t>https://pixabay.com/photos/school-draw-drawing-education-1974369/</t>
@@ -361,7 +361,7 @@
     <t>28.jpg</t>
   </si>
   <si>
-    <t>{“요리” : 5, “강좌” : 4, “음식” : 2, “재미” : 2, “체험” : 3}</t>
+    <t>{"요리" : 5, "강좌" : 4, "음식" : 2, "재미" : 2, "체험" : 3}</t>
   </si>
   <si>
     <t>https://pixabay.com/photos/cooking-ingredients-flat-lay-bake-5880136/</t>
@@ -373,7 +373,7 @@
     <t>29.jpg</t>
   </si>
   <si>
-    <t>{“공예” : 5, “체험” : 4, “문화” : 2, “재미” : 2, “이벤트” : 1}</t>
+    <t>{"공예" : 5, "체험" : 4, "문화" : 2, "재미" : 2, "이벤트" : 1}</t>
   </si>
   <si>
     <t>https://pixabay.com/photos/goldsmith-workshop-do-it-yourself-5909681/</t>
@@ -385,7 +385,7 @@
     <t>30.jpg</t>
   </si>
   <si>
-    <t>{“경기” : 5, “재미” : 3, “활동” : 3, “이벤트” : 3, “체험” : 3}</t>
+    <t>{"경기" : 5, "재미" : 3, "활동" : 3, "이벤트" : 3, "체험" : 3}</t>
   </si>
   <si>
     <t>https://pixabay.com/ko/photos/%EB%8C%80%EC%83%81-%EA%B7%B8%EB%A3%B9-%EA%B4%80%EB%9E%8C%EC%84%9D-%EA%B5%B0%EC%A4%91-%EA%B2%8C%EC%9E%84-1866738/</t>
@@ -397,7 +397,7 @@
     <t>31.jpg</t>
   </si>
   <si>
-    <t>{“게임” : 5, “재미” : 3, “친구” : 3, “힐링” : 3, “휴식” : 3}</t>
+    <t>{"게임" : 5, "재미" : 3, "친구" : 3, "힐링" : 3, "휴식" : 3}</t>
   </si>
   <si>
     <t>https://pixabay.com/ko/photos/game-%EA%B2%8C%EC%9E%84-%EB%B3%B4%EB%93%9C%EA%B2%8C%EC%9E%84-%EB%86%80%EC%9D%B4-4710444/</t>
@@ -409,7 +409,7 @@
     <t>32.jpg</t>
   </si>
   <si>
-    <t>{“공예” : 5, “체험” : 5, “커플” : 3, “미술” : 3, “강좌” : 4}</t>
+    <t>{"공예" : 5, "체험" : 5, "커플" : 3, "미술" : 3, "강좌" : 4}</t>
   </si>
   <si>
     <t>https://pixabay.com/ko/photos/%EB%8F%84%EA%B3%B5-%EB%8F%84%EC%9E%90%EA%B8%B0-%EA%BD%83%EB%B3%91-%EB%83%84%EB%B9%84-4682257/</t>
@@ -421,7 +421,7 @@
     <t>33.jpg</t>
   </si>
   <si>
-    <t>{“비싸다” : 5, “호텔” : 5, “커플” : 3, “힐링” : 3, “여유” : 3}</t>
+    <t>{"비싸다" : 5, "호텔" : 5, "커플" : 3, "힐링" : 3, "여유" : 3}</t>
   </si>
   <si>
     <t>https://pixabay.com/ko/photos/%ED%92%80-%EC%95%BC%EC%9E%90%EC%88%98-%ED%98%B8%ED%85%94-%ED%85%8C%EC%9D%B4%EB%B8%94-2128578/</t>
@@ -433,7 +433,7 @@
     <t>34.jpg</t>
   </si>
   <si>
-    <t>{“가격” : 5, “호텔” : 5, “커플” : 3, “가족” : 3, “돈” : 5}</t>
+    <t>{"가격" : 5, "호텔" : 5, "커플" : 3, "가족" : 3, "돈" : 5}</t>
   </si>
   <si>
     <t>https://pixabay.com/ko/photos/%ED%98%B8%ED%85%94-%EB%A3%B8-%EC%B9%A8%EB%8C%80-%EB%B2%A0%EA%B0%9C-%EB%A3%B8-1447201/</t>
@@ -445,7 +445,7 @@
     <t>35.jpg</t>
   </si>
   <si>
-    <t>{“영화” : 5, “커플” : 3, “공연” : 5, “재미” : 2, “힐링” : 2}</t>
+    <t>{"영화" : 5, "커플" : 3, "공연" : 5, "재미" : 2, "힐링" : 2}</t>
   </si>
   <si>
     <t>https://pixabay.com/ko/photos/%EC%8B%9C%EB%84%A4%EB%A7%88-%ED%99%80-%EC%98%81%ED%99%94-%EC%98%81%ED%99%94-%EC%97%B0%EC%9D%B8-2502213/</t>
@@ -461,14 +461,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,15 +485,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -742,19 +745,19 @@
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>3.0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -762,19 +765,19 @@
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>4.0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -782,19 +785,19 @@
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>3.0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -802,19 +805,19 @@
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -825,16 +828,16 @@
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>4.0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -845,16 +848,16 @@
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1">
         <v>2.0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -865,16 +868,16 @@
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>2.0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -885,16 +888,16 @@
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="1">
         <v>2.0</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -905,16 +908,16 @@
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="1">
         <v>1.0</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -925,16 +928,16 @@
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="1">
         <v>1.0</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -945,16 +948,16 @@
       <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="1">
         <v>2.0</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -965,16 +968,16 @@
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="1">
         <v>2.0</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -985,16 +988,16 @@
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1">
         <v>3.0</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1005,16 +1008,16 @@
       <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D15" s="1">
         <v>4.0</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1025,16 +1028,16 @@
       <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="1">
         <v>4.0</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1045,16 +1048,16 @@
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="1">
         <v>1.0</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1065,16 +1068,16 @@
       <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="1">
         <v>5.0</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1085,16 +1088,16 @@
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="1">
         <v>5.0</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1105,16 +1108,16 @@
       <c r="B20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="1">
         <v>1.0</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1122,19 +1125,19 @@
       <c r="A21" s="1">
         <v>20.0</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="1">
         <v>4.0</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1142,19 +1145,19 @@
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="1">
         <v>4.0</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1162,19 +1165,19 @@
       <c r="A23" s="1">
         <v>22.0</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D23" s="1">
         <v>4.0</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1182,19 +1185,19 @@
       <c r="A24" s="1">
         <v>23.0</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D24" s="1">
         <v>5.0</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1202,19 +1205,19 @@
       <c r="A25" s="1">
         <v>24.0</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="1">
         <v>5.0</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1222,19 +1225,19 @@
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="1">
         <v>5.0</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1245,16 +1248,16 @@
       <c r="B27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="1">
         <v>6.0</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1265,16 +1268,16 @@
       <c r="B28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D28" s="1">
         <v>6.0</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1285,16 +1288,16 @@
       <c r="B29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="1">
         <v>6.0</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1305,16 +1308,16 @@
       <c r="B30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="1">
         <v>6.0</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="5" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1325,16 +1328,16 @@
       <c r="B31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D31" s="1">
         <v>3.0</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="5" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1345,16 +1348,16 @@
       <c r="B32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D32" s="1">
         <v>3.0</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1365,16 +1368,16 @@
       <c r="B33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D33" s="1">
         <v>6.0</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1385,16 +1388,16 @@
       <c r="B34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D34" s="1">
         <v>1.0</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="5" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1405,16 +1408,16 @@
       <c r="B35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D35" s="1">
         <v>1.0</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1425,16 +1428,16 @@
       <c r="B36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D36" s="1">
         <v>5.0</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="5" t="s">
         <v>145</v>
       </c>
     </row>
